--- a/rsc/data/pddl_solvers_refined_data.xlsx
+++ b/rsc/data/pddl_solvers_refined_data.xlsx
@@ -727,7 +727,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -790,12 +790,7 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -835,7 +830,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -847,11 +851,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -981,7 +991,7 @@
             <c:numRef>
               <c:f>refined_data!$H$3:$H$107</c:f>
               <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="105"/>
                 <c:pt idx="0">
                   <c:v>-0.1921644217949838</c:v>
@@ -1405,7 +1415,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1492,670 +1502,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="it-IT"/>
-              <a:t>Cactus</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="it-IT" baseline="0"/>
-              <a:t> plot - Solver.Planning.Domains parser</a:t>
-            </a:r>
-            <a:endParaRPr lang="it-IT"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:yVal>
-            <c:numRef>
-              <c:f>refined_data!$J$3:$J$107</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="105"/>
-                <c:pt idx="0">
-                  <c:v>6.6649247414105528E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.8135056804453832E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.8575928564879413E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.9862506337541153E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.10562759903118105</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.10713478479909574</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.11315869339109726</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.12765283148426515</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.15513676587560118</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.16038753282144969</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.18719378974339154</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.19267646908725766</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.19637445796013797</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.19740985888636678</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.20971441751338718</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.21259059630387642</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.21607773540196368</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.21884770152046593</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.21898220001874319</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.2198007324014295</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.220108456369908</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.22109203313968645</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.22195954258472181</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.22791627228681438</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.23600452299265823</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.23735317780583795</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.23740916858081113</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.23783667787246185</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.23957779460307291</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.24071164345588236</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.24343618271036049</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.24701529220791121</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.24744139838196255</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.24774329950104085</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.25474281058898784</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.25625896731449854</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.25844113051052076</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.2605712732751696</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.26764454970268808</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.27440426455578459</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.27712289024348546</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.27790321449611077</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.28028691699936337</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.28847028918712431</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.28909326725460771</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.29032171588303113</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.29088194796256128</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.29316737476882931</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.29648316669576852</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.29734769710014491</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.2976447914399456</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.29765859141658468</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.29882620263011994</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0.30549938922047398</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0.30942718483130793</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0.30992133445911546</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0.31313589192150598</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0.31883293983275107</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0.31888503612830854</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0.31960310794998614</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0.32080541094194676</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>0.32638477746721761</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>0.32871993740272909</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>0.330939791152357</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>0.33211665935812656</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>0.33304855165357267</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>0.33365180944355777</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>0.33653322036291755</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>0.33763054717446456</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>0.33784816993974159</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>0.33862585573495807</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>0.33921953449252246</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>0.35721543521849586</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>0.36491770683751229</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>0.36610229389785925</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>0.36612685368177117</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>0.36651362067735144</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>0.36781701710482023</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0.3680561651022442</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0.37489947352912167</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>0.37515137810825033</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>0.3847434789022236</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>0.39576417259696989</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>0.41948027177226993</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>0.42181758964523836</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>0.42289300898347149</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>0.43031604780184918</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>0.47138233138029928</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>0.50439257990575792</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>0.52623097480427039</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>0.52982933108923724</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>0.54019950929209493</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>0.54938714318560944</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>0.56545488369614538</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>0.57388735729978702</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>0.60691381681019085</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>0.61588992111801688</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>0.62487433840124973</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>0.72804628648927372</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>0.74252914830490813</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>0.79499941896830006</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>1.0976731449414063</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>1.1429962726393281</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>1.1950643134606245</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>1.213416551264175</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D1FA-4EFD-8CD8-A9DB8B4828C0}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="282891480"/>
-        <c:axId val="390601104"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="282891480"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="105"/>
-          <c:min val="1"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="390601104"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-        <c:majorUnit val="2"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="390601104"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1.3"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="282891480"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-        <c:majorUnit val="0.1"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="it-IT"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2711,522 +2058,6 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -3260,42 +2091,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>38099</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>523874</xdr:colOff>
-      <xdr:row>117</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Grafico 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{919CAA8F-3952-45D7-BE1F-30B8F5A137FD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3617,10 +2412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J107"/>
+  <dimension ref="A1:L107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3:J107"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3:H107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3635,51 +2430,51 @@
     <col min="9" max="9" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="39" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="40"/>
-      <c r="E1" s="37" t="s">
+      <c r="D1" s="42"/>
+      <c r="E1" s="38" t="s">
         <v>146</v>
       </c>
-      <c r="F1" s="22">
+      <c r="F1" s="43">
         <v>-0.02</v>
       </c>
-      <c r="G1" s="41" t="s">
+      <c r="G1" s="36" t="s">
         <v>147</v>
       </c>
-      <c r="H1" s="42"/>
-      <c r="I1" s="24" t="s">
+      <c r="H1" s="37"/>
+      <c r="I1" s="23" t="s">
         <v>148</v>
       </c>
-      <c r="J1" s="25"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="26"/>
-      <c r="B2" s="27"/>
+      <c r="J1" s="24"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="25"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="27"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="33" t="s">
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="26"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="36"/>
+      <c r="B3" s="35"/>
       <c r="C3" s="6">
         <f>AVERAGE(blocksworld!B2:K2)</f>
         <v>9.8681988999999998E-3</v>
@@ -3699,7 +2494,7 @@
       <c r="G3" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="H3" s="19">
+      <c r="H3" s="44">
         <v>-0.1921644217949838</v>
       </c>
       <c r="I3" s="14" t="s">
@@ -3708,12 +2503,15 @@
       <c r="J3" s="19">
         <v>6.6649247414105528E-3</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="28" t="s">
+      <c r="L3" s="22">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="32"/>
+      <c r="B4" s="31"/>
       <c r="C4" s="4">
         <f>AVERAGE(blocksworld!B3:K3)</f>
         <v>1.0267709000000001E-3</v>
@@ -3733,7 +2531,7 @@
       <c r="G4" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="H4" s="20">
+      <c r="H4" s="45">
         <v>-0.10709909648054453</v>
       </c>
       <c r="I4" s="4" t="s">
@@ -3742,12 +2540,15 @@
       <c r="J4" s="20">
         <v>2.8135056804453832E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="28" t="s">
+      <c r="L4" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="32"/>
+      <c r="B5" s="31"/>
       <c r="C5" s="4">
         <f>AVERAGE(blocksworld!B4:K4)</f>
         <v>4.4569600000000004E-4</v>
@@ -3767,7 +2568,7 @@
       <c r="G5" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="H5" s="20">
+      <c r="H5" s="45">
         <v>-6.6427879006949108E-3</v>
       </c>
       <c r="I5" s="4" t="s">
@@ -3776,12 +2577,15 @@
       <c r="J5" s="20">
         <v>5.8575928564879413E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="28" t="s">
+      <c r="L5" s="22">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="32"/>
+      <c r="B6" s="31"/>
       <c r="C6" s="4">
         <f>AVERAGE(blocksworld!B5:K5)</f>
         <v>4.6375000000000002E-4</v>
@@ -3801,7 +2605,7 @@
       <c r="G6" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="H6" s="20">
+      <c r="H6" s="45">
         <v>2.8536494754918651E-2</v>
       </c>
       <c r="I6" s="4" t="s">
@@ -3810,12 +2614,15 @@
       <c r="J6" s="20">
         <v>6.9862506337541153E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="28" t="s">
+      <c r="L6" s="22">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="32"/>
+      <c r="B7" s="31"/>
       <c r="C7" s="4">
         <f>AVERAGE(blocksworld!B6:K6)</f>
         <v>2.4962520000000002E-4</v>
@@ -3835,7 +2642,7 @@
       <c r="G7" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="H7" s="20">
+      <c r="H7" s="45">
         <v>6.0343259802665868E-2</v>
       </c>
       <c r="I7" s="4" t="s">
@@ -3844,12 +2651,15 @@
       <c r="J7" s="20">
         <v>0.10562759903118105</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="28" t="s">
+      <c r="L7" s="22">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="B8" s="32"/>
+      <c r="B8" s="31"/>
       <c r="C8" s="4">
         <f>AVERAGE(blocksworld!B7:K7)</f>
         <v>3.0373949999999998E-4</v>
@@ -3869,7 +2679,7 @@
       <c r="G8" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="H8" s="20">
+      <c r="H8" s="45">
         <v>7.2391222456361093E-2</v>
       </c>
       <c r="I8" s="4" t="s">
@@ -3878,12 +2688,15 @@
       <c r="J8" s="20">
         <v>0.10713478479909574</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="28" t="s">
+      <c r="L8" s="22">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="B9" s="32"/>
+      <c r="B9" s="31"/>
       <c r="C9" s="4">
         <f>AVERAGE(blocksworld!B8:K8)</f>
         <v>2.3744949999999999E-4</v>
@@ -3903,7 +2716,7 @@
       <c r="G9" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="H9" s="20">
+      <c r="H9" s="45">
         <v>0.11151724864357299</v>
       </c>
       <c r="I9" s="4" t="s">
@@ -3912,12 +2725,15 @@
       <c r="J9" s="20">
         <v>0.11315869339109726</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="28" t="s">
+      <c r="L9" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="B10" s="32"/>
+      <c r="B10" s="31"/>
       <c r="C10" s="4">
         <f>AVERAGE(blocksworld!B9:K9)</f>
         <v>2.2434079999999996E-4</v>
@@ -3937,7 +2753,7 @@
       <c r="G10" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="H10" s="20">
+      <c r="H10" s="45">
         <v>0.11319853515055979</v>
       </c>
       <c r="I10" s="4" t="s">
@@ -3946,12 +2762,15 @@
       <c r="J10" s="20">
         <v>0.12765283148426515</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="28" t="s">
+      <c r="L10" s="22">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="B11" s="32"/>
+      <c r="B11" s="31"/>
       <c r="C11" s="4">
         <f>AVERAGE(blocksworld!B10:K10)</f>
         <v>3.4479180000000006E-4</v>
@@ -3971,7 +2790,7 @@
       <c r="G11" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="H11" s="20">
+      <c r="H11" s="45">
         <v>0.13635594256321529</v>
       </c>
       <c r="I11" s="4" t="s">
@@ -3980,12 +2799,15 @@
       <c r="J11" s="20">
         <v>0.15513676587560118</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="28" t="s">
+      <c r="L11" s="22">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="B12" s="32"/>
+      <c r="B12" s="31"/>
       <c r="C12" s="4">
         <f>AVERAGE(blocksworld!B11:K11)</f>
         <v>3.0481249999999996E-4</v>
@@ -4005,7 +2827,7 @@
       <c r="G12" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="H12" s="20">
+      <c r="H12" s="45">
         <v>0.16818240290774894</v>
       </c>
       <c r="I12" s="4" t="s">
@@ -4014,12 +2836,15 @@
       <c r="J12" s="20">
         <v>0.16038753282144969</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="28" t="s">
+      <c r="L12" s="22">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="B13" s="32"/>
+      <c r="B13" s="31"/>
       <c r="C13" s="4">
         <f>AVERAGE(blocksworld!B12:K12)</f>
         <v>3.2417229999999995E-4</v>
@@ -4039,7 +2864,7 @@
       <c r="G13" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="H13" s="20">
+      <c r="H13" s="45">
         <v>0.17437100006985626</v>
       </c>
       <c r="I13" s="4" t="s">
@@ -4048,12 +2873,15 @@
       <c r="J13" s="20">
         <v>0.18719378974339154</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="28" t="s">
+      <c r="L13" s="22">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="B14" s="32"/>
+      <c r="B14" s="31"/>
       <c r="C14" s="4">
         <f>AVERAGE(blocksworld!B13:K13)</f>
         <v>3.6447810000000004E-4</v>
@@ -4073,7 +2901,7 @@
       <c r="G14" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="H14" s="20">
+      <c r="H14" s="45">
         <v>0.20652377367671712</v>
       </c>
       <c r="I14" s="4" t="s">
@@ -4082,12 +2910,15 @@
       <c r="J14" s="20">
         <v>0.19267646908725766</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="28" t="s">
+      <c r="L14" s="22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="B15" s="32"/>
+      <c r="B15" s="31"/>
       <c r="C15" s="4">
         <f>AVERAGE(blocksworld!B14:K14)</f>
         <v>3.2524530000000004E-4</v>
@@ -4107,7 +2938,7 @@
       <c r="G15" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="H15" s="20">
+      <c r="H15" s="45">
         <v>0.21321746305151168</v>
       </c>
       <c r="I15" s="4" t="s">
@@ -4116,12 +2947,15 @@
       <c r="J15" s="20">
         <v>0.19637445796013797</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="28" t="s">
+      <c r="L15" s="22">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="B16" s="32"/>
+      <c r="B16" s="31"/>
       <c r="C16" s="4">
         <f>AVERAGE(blocksworld!B15:K15)</f>
         <v>3.3233589999999999E-4</v>
@@ -4141,7 +2975,7 @@
       <c r="G16" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="H16" s="20">
+      <c r="H16" s="45">
         <v>0.21775524174274297</v>
       </c>
       <c r="I16" s="4" t="s">
@@ -4150,12 +2984,15 @@
       <c r="J16" s="20">
         <v>0.19740985888636678</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="28" t="s">
+      <c r="L16" s="22">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="B17" s="32"/>
+      <c r="B17" s="31"/>
       <c r="C17" s="4">
         <f>AVERAGE(blocksworld!B16:K16)</f>
         <v>2.2737320000000002E-4</v>
@@ -4175,7 +3012,7 @@
       <c r="G17" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="H17" s="20">
+      <c r="H17" s="45">
         <v>0.21902911192491903</v>
       </c>
       <c r="I17" s="4" t="s">
@@ -4184,12 +3021,15 @@
       <c r="J17" s="20">
         <v>0.20971441751338718</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="28" t="s">
+      <c r="L17" s="22">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="B18" s="32"/>
+      <c r="B18" s="31"/>
       <c r="C18" s="4">
         <f>AVERAGE(blocksworld!B17:K17)</f>
         <v>3.6102599999999997E-4</v>
@@ -4209,7 +3049,7 @@
       <c r="G18" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="H18" s="20">
+      <c r="H18" s="45">
         <v>0.23428040706455874</v>
       </c>
       <c r="I18" s="4" t="s">
@@ -4218,12 +3058,15 @@
       <c r="J18" s="20">
         <v>0.21259059630387642</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="28" t="s">
+      <c r="L18" s="22">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="B19" s="32"/>
+      <c r="B19" s="31"/>
       <c r="C19" s="4">
         <f>AVERAGE(blocksworld!B18:K18)</f>
         <v>3.8542389999999995E-4</v>
@@ -4243,7 +3086,7 @@
       <c r="G19" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="H19" s="20">
+      <c r="H19" s="45">
         <v>0.24225016940483285</v>
       </c>
       <c r="I19" s="4" t="s">
@@ -4252,12 +3095,15 @@
       <c r="J19" s="20">
         <v>0.21607773540196368</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="28" t="s">
+      <c r="L19" s="22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="B20" s="32"/>
+      <c r="B20" s="31"/>
       <c r="C20" s="4">
         <f>AVERAGE(blocksworld!B19:K19)</f>
         <v>2.9352299999999996E-4</v>
@@ -4277,7 +3123,7 @@
       <c r="G20" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="H20" s="20">
+      <c r="H20" s="45">
         <v>0.24573721372089682</v>
       </c>
       <c r="I20" s="4" t="s">
@@ -4286,12 +3132,15 @@
       <c r="J20" s="20">
         <v>0.21884770152046593</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="28" t="s">
+      <c r="L20" s="22">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="B21" s="32"/>
+      <c r="B21" s="31"/>
       <c r="C21" s="4">
         <f>AVERAGE(blocksworld!B20:K20)</f>
         <v>4.5064109999999992E-4</v>
@@ -4311,7 +3160,7 @@
       <c r="G21" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="H21" s="20">
+      <c r="H21" s="45">
         <v>0.24590680679446067</v>
       </c>
       <c r="I21" s="4" t="s">
@@ -4320,12 +3169,15 @@
       <c r="J21" s="20">
         <v>0.21898220001874319</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="28" t="s">
+      <c r="L21" s="22">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="B22" s="32"/>
+      <c r="B22" s="31"/>
       <c r="C22" s="4">
         <f>AVERAGE(blocksworld!B21:K21)</f>
         <v>4.1896559999999997E-4</v>
@@ -4345,7 +3197,7 @@
       <c r="G22" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="H22" s="20">
+      <c r="H22" s="45">
         <v>0.24693947065592647</v>
       </c>
       <c r="I22" s="4" t="s">
@@ -4355,11 +3207,11 @@
         <v>0.2198007324014295</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="28" t="s">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="B23" s="32"/>
+      <c r="B23" s="31"/>
       <c r="C23" s="4">
         <f>AVERAGE(blocksworld!B22:K22)</f>
         <v>5.7902249999999995E-4</v>
@@ -4379,7 +3231,7 @@
       <c r="G23" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="H23" s="20">
+      <c r="H23" s="45">
         <v>0.2473279421520217</v>
       </c>
       <c r="I23" s="4" t="s">
@@ -4389,11 +3241,11 @@
         <v>0.220108456369908</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="28" t="s">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="B24" s="32"/>
+      <c r="B24" s="31"/>
       <c r="C24" s="4">
         <f>AVERAGE(blocksworld!B23:K23)</f>
         <v>2.9002440000000003E-4</v>
@@ -4413,7 +3265,7 @@
       <c r="G24" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="H24" s="20">
+      <c r="H24" s="45">
         <v>0.24857051321199397</v>
       </c>
       <c r="I24" s="4" t="s">
@@ -4423,11 +3275,11 @@
         <v>0.22109203313968645</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="28" t="s">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="B25" s="32"/>
+      <c r="B25" s="31"/>
       <c r="C25" s="4">
         <f>AVERAGE(blocksworld!B24:K24)</f>
         <v>3.8631060000000005E-4</v>
@@ -4447,7 +3299,7 @@
       <c r="G25" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="H25" s="20">
+      <c r="H25" s="45">
         <v>0.2496675951990231</v>
       </c>
       <c r="I25" s="4" t="s">
@@ -4457,11 +3309,11 @@
         <v>0.22195954258472181</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="28" t="s">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="B26" s="32"/>
+      <c r="B26" s="31"/>
       <c r="C26" s="4">
         <f>AVERAGE(blocksworld!B25:K25)</f>
         <v>3.5528789999999996E-4</v>
@@ -4481,7 +3333,7 @@
       <c r="G26" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="H26" s="20">
+      <c r="H26" s="45">
         <v>0.25722968810388286</v>
       </c>
       <c r="I26" s="4" t="s">
@@ -4491,11 +3343,11 @@
         <v>0.22791627228681438</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="28" t="s">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="B27" s="32"/>
+      <c r="B27" s="31"/>
       <c r="C27" s="4">
         <f>AVERAGE(blocksworld!B26:K26)</f>
         <v>3.3116980000000003E-4</v>
@@ -4515,7 +3367,7 @@
       <c r="G27" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="H27" s="20">
+      <c r="H27" s="45">
         <v>0.26757951034324107</v>
       </c>
       <c r="I27" s="4" t="s">
@@ -4525,11 +3377,11 @@
         <v>0.23600452299265823</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="28" t="s">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="B28" s="32"/>
+      <c r="B28" s="31"/>
       <c r="C28" s="4">
         <f>AVERAGE(blocksworld!B27:K27)</f>
         <v>2.9758140000000002E-4</v>
@@ -4549,7 +3401,7 @@
       <c r="G28" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="H28" s="20">
+      <c r="H28" s="45">
         <v>0.2693145045476304</v>
       </c>
       <c r="I28" s="4" t="s">
@@ -4559,11 +3411,11 @@
         <v>0.23735317780583795</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="28" t="s">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="B29" s="32"/>
+      <c r="B29" s="31"/>
       <c r="C29" s="4">
         <f>AVERAGE(blocksworld!B28:K28)</f>
         <v>5.9516370000000014E-4</v>
@@ -4583,7 +3435,7 @@
       <c r="G29" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="H29" s="20">
+      <c r="H29" s="45">
         <v>0.26938659199725429</v>
       </c>
       <c r="I29" s="4" t="s">
@@ -4593,11 +3445,11 @@
         <v>0.23740916858081113</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="28" t="s">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="B30" s="32"/>
+      <c r="B30" s="31"/>
       <c r="C30" s="4">
         <f>AVERAGE(blocksworld!B29:K29)</f>
         <v>3.9951250000000004E-4</v>
@@ -4617,7 +3469,7 @@
       <c r="G30" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="H30" s="20">
+      <c r="H30" s="45">
         <v>0.26993715609210506</v>
       </c>
       <c r="I30" s="4" t="s">
@@ -4627,11 +3479,11 @@
         <v>0.23783667787246185</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="28" t="s">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="B31" s="32"/>
+      <c r="B31" s="31"/>
       <c r="C31" s="4">
         <f>AVERAGE(blocksworld!B30:K30)</f>
         <v>3.5351520000000001E-4</v>
@@ -4651,7 +3503,7 @@
       <c r="G31" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="H31" s="20">
+      <c r="H31" s="45">
         <v>0.27218220023423828</v>
       </c>
       <c r="I31" s="4" t="s">
@@ -4661,11 +3513,11 @@
         <v>0.23957779460307291</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="28" t="s">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="B32" s="32"/>
+      <c r="B32" s="31"/>
       <c r="C32" s="4">
         <f>AVERAGE(blocksworld!B31:K31)</f>
         <v>3.0658520000000002E-4</v>
@@ -4685,7 +3537,7 @@
       <c r="G32" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="H32" s="20">
+      <c r="H32" s="45">
         <v>0.27364660552716624</v>
       </c>
       <c r="I32" s="4" t="s">
@@ -4696,10 +3548,10 @@
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="28" t="s">
+      <c r="A33" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="B33" s="32"/>
+      <c r="B33" s="31"/>
       <c r="C33" s="4">
         <f>AVERAGE(blocksworld!B32:K32)</f>
         <v>3.7082240000000001E-4</v>
@@ -4719,7 +3571,7 @@
       <c r="G33" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="H33" s="20">
+      <c r="H33" s="45">
         <v>0.27717317220615434</v>
       </c>
       <c r="I33" s="4" t="s">
@@ -4730,10 +3582,10 @@
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="28" t="s">
+      <c r="A34" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="B34" s="32"/>
+      <c r="B34" s="31"/>
       <c r="C34" s="4">
         <f>AVERAGE(blocksworld!B33:K33)</f>
         <v>4.1929210000000007E-4</v>
@@ -4753,7 +3605,7 @@
       <c r="G34" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="H34" s="20">
+      <c r="H34" s="45">
         <v>0.28182252943784175</v>
       </c>
       <c r="I34" s="4" t="s">
@@ -4764,10 +3616,10 @@
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="28" t="s">
+      <c r="A35" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="B35" s="32"/>
+      <c r="B35" s="31"/>
       <c r="C35" s="4">
         <f>AVERAGE(blocksworld!B34:K34)</f>
         <v>6.7400240000000007E-4</v>
@@ -4787,7 +3639,7 @@
       <c r="G35" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="H35" s="20">
+      <c r="H35" s="45">
         <v>0.28237731754420542</v>
       </c>
       <c r="I35" s="4" t="s">
@@ -4798,10 +3650,10 @@
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="28" t="s">
+      <c r="A36" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="B36" s="32"/>
+      <c r="B36" s="31"/>
       <c r="C36" s="4">
         <f>AVERAGE(blocksworld!B35:K35)</f>
         <v>4.0930899999999995E-4</v>
@@ -4821,7 +3673,7 @@
       <c r="G36" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="H36" s="20">
+      <c r="H36" s="45">
         <v>0.28277055460024253</v>
       </c>
       <c r="I36" s="4" t="s">
@@ -4832,10 +3684,10 @@
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="28" t="s">
+      <c r="A37" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="B37" s="32"/>
+      <c r="B37" s="31"/>
       <c r="C37" s="1">
         <f>AVERAGE(blocksworld!B36:K36)</f>
         <v>4.1271430000000005E-4</v>
@@ -4855,7 +3707,7 @@
       <c r="G37" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="H37" s="20">
+      <c r="H37" s="45">
         <v>0.29192581143293633</v>
       </c>
       <c r="I37" s="4" t="s">
@@ -4866,10 +3718,10 @@
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="33" t="s">
+      <c r="A38" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="B38" s="34"/>
+      <c r="B38" s="33"/>
       <c r="C38" s="8">
         <f>AVERAGE(depots!B2:K2)</f>
         <v>1.325799E-4</v>
@@ -4889,7 +3741,7 @@
       <c r="G38" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="H38" s="20">
+      <c r="H38" s="45">
         <v>0.29391860661768004</v>
       </c>
       <c r="I38" s="4" t="s">
@@ -4900,10 +3752,10 @@
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="28" t="s">
+      <c r="A39" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="B39" s="29"/>
+      <c r="B39" s="28"/>
       <c r="C39" s="10">
         <f>AVERAGE(depots!B3:K3)</f>
         <v>1.6957339999999998E-4</v>
@@ -4923,7 +3775,7 @@
       <c r="G39" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="H39" s="20">
+      <c r="H39" s="45">
         <v>0.29679287337129207</v>
       </c>
       <c r="I39" s="4" t="s">
@@ -4934,10 +3786,10 @@
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="28" t="s">
+      <c r="A40" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="B40" s="29"/>
+      <c r="B40" s="28"/>
       <c r="C40" s="10">
         <f>AVERAGE(depots!B4:K4)</f>
         <v>3.8481750000000003E-4</v>
@@ -4957,7 +3809,7 @@
       <c r="G40" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="H40" s="20">
+      <c r="H40" s="45">
         <v>0.29960557655707937</v>
       </c>
       <c r="I40" s="4" t="s">
@@ -4968,10 +3820,10 @@
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="28" t="s">
+      <c r="A41" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="B41" s="29"/>
+      <c r="B41" s="28"/>
       <c r="C41" s="10">
         <f>AVERAGE(depots!B5:K5)</f>
         <v>3.5757380000000003E-4</v>
@@ -4991,7 +3843,7 @@
       <c r="G41" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="H41" s="20">
+      <c r="H41" s="45">
         <v>0.3089949578843697</v>
       </c>
       <c r="I41" s="4" t="s">
@@ -5002,10 +3854,10 @@
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="28" t="s">
+      <c r="A42" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="B42" s="29"/>
+      <c r="B42" s="28"/>
       <c r="C42" s="10">
         <f>AVERAGE(depots!B6:K6)</f>
         <v>1.0103039000000002E-3</v>
@@ -5025,7 +3877,7 @@
       <c r="G42" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="H42" s="20">
+      <c r="H42" s="45">
         <v>0.31804003558822586</v>
       </c>
       <c r="I42" s="4" t="s">
@@ -5036,10 +3888,10 @@
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="28" t="s">
+      <c r="A43" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="B43" s="29"/>
+      <c r="B43" s="28"/>
       <c r="C43" s="10">
         <f>AVERAGE(depots!B7:K7)</f>
         <v>5.4636729999999996E-4</v>
@@ -5059,7 +3911,7 @@
       <c r="G43" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="H43" s="20">
+      <c r="H43" s="45">
         <v>0.32169780267456199</v>
       </c>
       <c r="I43" s="4" t="s">
@@ -5070,10 +3922,10 @@
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="28" t="s">
+      <c r="A44" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="B44" s="29"/>
+      <c r="B44" s="28"/>
       <c r="C44" s="10">
         <f>AVERAGE(depots!B8:K8)</f>
         <v>4.8441589999999996E-4</v>
@@ -5093,7 +3945,7 @@
       <c r="G44" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="H44" s="20">
+      <c r="H44" s="45">
         <v>0.32274982084098797</v>
       </c>
       <c r="I44" s="4" t="s">
@@ -5104,10 +3956,10 @@
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="28" t="s">
+      <c r="A45" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="B45" s="29"/>
+      <c r="B45" s="28"/>
       <c r="C45" s="10">
         <f>AVERAGE(depots!B9:K9)</f>
         <v>5.2252900000000009E-4</v>
@@ -5127,7 +3979,7 @@
       <c r="G45" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="H45" s="20">
+      <c r="H45" s="45">
         <v>0.32596939544159942</v>
       </c>
       <c r="I45" s="4" t="s">
@@ -5138,10 +3990,10 @@
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="28" t="s">
+      <c r="A46" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="B46" s="29"/>
+      <c r="B46" s="28"/>
       <c r="C46" s="10">
         <f>AVERAGE(depots!B10:K10)</f>
         <v>7.1286169999999999E-4</v>
@@ -5161,7 +4013,7 @@
       <c r="G46" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="H46" s="20">
+      <c r="H46" s="45">
         <v>0.3370906007236274</v>
       </c>
       <c r="I46" s="4" t="s">
@@ -5172,10 +4024,10 @@
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="28" t="s">
+      <c r="A47" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="B47" s="29"/>
+      <c r="B47" s="28"/>
       <c r="C47" s="10">
         <f>AVERAGE(depots!B11:K11)</f>
         <v>2.5349730000000004E-4</v>
@@ -5195,7 +4047,7 @@
       <c r="G47" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="H47" s="20">
+      <c r="H47" s="45">
         <v>0.3379415858522184</v>
       </c>
       <c r="I47" s="4" t="s">
@@ -5206,10 +4058,10 @@
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="28" t="s">
+      <c r="A48" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="B48" s="29"/>
+      <c r="B48" s="28"/>
       <c r="C48" s="10">
         <f>AVERAGE(depots!B12:K12)</f>
         <v>6.3173710000000009E-4</v>
@@ -5229,7 +4081,7 @@
       <c r="G48" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="H48" s="20">
+      <c r="H48" s="45">
         <v>0.33962145811892236</v>
       </c>
       <c r="I48" s="4" t="s">
@@ -5240,10 +4092,10 @@
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="28" t="s">
+      <c r="A49" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="B49" s="29"/>
+      <c r="B49" s="28"/>
       <c r="C49" s="10">
         <f>AVERAGE(depots!B13:K13)</f>
         <v>1.1252963000000001E-3</v>
@@ -5263,7 +4115,7 @@
       <c r="G49" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="H49" s="20">
+      <c r="H49" s="45">
         <v>0.34038836301073649</v>
       </c>
       <c r="I49" s="4" t="s">
@@ -5274,10 +4126,10 @@
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="28" t="s">
+      <c r="A50" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="B50" s="29"/>
+      <c r="B50" s="28"/>
       <c r="C50" s="10">
         <f>AVERAGE(depots!B14:K14)</f>
         <v>2.7089760000000002E-4</v>
@@ -5297,7 +4149,7 @@
       <c r="G50" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="H50" s="20">
+      <c r="H50" s="45">
         <v>0.3435221127544632</v>
       </c>
       <c r="I50" s="4" t="s">
@@ -5308,10 +4160,10 @@
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="28" t="s">
+      <c r="A51" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="B51" s="29"/>
+      <c r="B51" s="28"/>
       <c r="C51" s="10">
         <f>AVERAGE(depots!B15:K15)</f>
         <v>4.6374970000000008E-4</v>
@@ -5331,7 +4183,7 @@
       <c r="G51" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="H51" s="20">
+      <c r="H51" s="45">
         <v>0.34808363603979664</v>
       </c>
       <c r="I51" s="4" t="s">
@@ -5342,10 +4194,10 @@
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="28" t="s">
+      <c r="A52" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="B52" s="29"/>
+      <c r="B52" s="28"/>
       <c r="C52" s="10">
         <f>AVERAGE(depots!B16:K16)</f>
         <v>9.2414100000000007E-5</v>
@@ -5365,7 +4217,7 @@
       <c r="G52" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="H52" s="20">
+      <c r="H52" s="45">
         <v>0.34927588750060146</v>
       </c>
       <c r="I52" s="4" t="s">
@@ -5376,10 +4228,10 @@
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="28" t="s">
+      <c r="A53" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="B53" s="29"/>
+      <c r="B53" s="28"/>
       <c r="C53" s="10">
         <f>AVERAGE(depots!B17:K17)</f>
         <v>9.7638900000000003E-4</v>
@@ -5399,7 +4251,7 @@
       <c r="G53" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="H53" s="20">
+      <c r="H53" s="45">
         <v>0.34968588217462554</v>
       </c>
       <c r="I53" s="4" t="s">
@@ -5410,10 +4262,10 @@
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="28" t="s">
+      <c r="A54" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="B54" s="29"/>
+      <c r="B54" s="28"/>
       <c r="C54" s="10">
         <f>AVERAGE(depots!B18:K18)</f>
         <v>5.1688449999999996E-4</v>
@@ -5433,7 +4285,7 @@
       <c r="G54" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="H54" s="20">
+      <c r="H54" s="45">
         <v>0.34970492982870927</v>
       </c>
       <c r="I54" s="4" t="s">
@@ -5444,10 +4296,10 @@
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="28" t="s">
+      <c r="A55" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="B55" s="29"/>
+      <c r="B55" s="28"/>
       <c r="C55" s="10">
         <f>AVERAGE(depots!B19:K19)</f>
         <v>9.120583000000002E-4</v>
@@ -5467,7 +4319,7 @@
       <c r="G55" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H55" s="20">
+      <c r="H55" s="45">
         <v>0.35131766441750245</v>
       </c>
       <c r="I55" s="4" t="s">
@@ -5478,10 +4330,10 @@
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="28" t="s">
+      <c r="A56" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="B56" s="29"/>
+      <c r="B56" s="28"/>
       <c r="C56" s="10">
         <f>AVERAGE(depots!B20:K20)</f>
         <v>4.9351270000000001E-4</v>
@@ -5501,7 +4353,7 @@
       <c r="G56" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="H56" s="20">
+      <c r="H56" s="45">
         <v>0.36057749082773627</v>
       </c>
       <c r="I56" s="4" t="s">
@@ -5512,10 +4364,10 @@
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="28" t="s">
+      <c r="A57" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="B57" s="29"/>
+      <c r="B57" s="28"/>
       <c r="C57" s="10">
         <f>AVERAGE(depots!B21:K21)</f>
         <v>1.373942E-3</v>
@@ -5535,7 +4387,7 @@
       <c r="G57" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="H57" s="20">
+      <c r="H57" s="45">
         <v>0.36606194309404183</v>
       </c>
       <c r="I57" s="4" t="s">
@@ -5546,10 +4398,10 @@
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="28" t="s">
+      <c r="A58" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="B58" s="29"/>
+      <c r="B58" s="28"/>
       <c r="C58" s="10">
         <f>AVERAGE(depots!B22:K22)</f>
         <v>4.6426289999999999E-4</v>
@@ -5569,7 +4421,7 @@
       <c r="G58" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="H58" s="20">
+      <c r="H58" s="45">
         <v>0.36675373848344478</v>
       </c>
       <c r="I58" s="4" t="s">
@@ -5580,10 +4432,10 @@
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="30" t="s">
+      <c r="A59" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="B59" s="31"/>
+      <c r="B59" s="30"/>
       <c r="C59" s="10">
         <f>AVERAGE(depots!B23:K23)</f>
         <v>5.0708699999999991E-5</v>
@@ -5603,7 +4455,7 @@
       <c r="G59" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="H59" s="20">
+      <c r="H59" s="45">
         <v>0.37126392152382554</v>
       </c>
       <c r="I59" s="4" t="s">
@@ -5614,10 +4466,10 @@
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="33" t="s">
+      <c r="A60" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="B60" s="36"/>
+      <c r="B60" s="35"/>
       <c r="C60" s="8">
         <f>AVERAGE(gripper!B2:K2)</f>
         <v>1.3579879999999999E-4</v>
@@ -5637,7 +4489,7 @@
       <c r="G60" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="H60" s="20">
+      <c r="H60" s="45">
         <v>0.3792995323154052</v>
       </c>
       <c r="I60" s="4" t="s">
@@ -5648,10 +4500,10 @@
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="28" t="s">
+      <c r="A61" s="27" t="s">
         <v>99</v>
       </c>
-      <c r="B61" s="32"/>
+      <c r="B61" s="31"/>
       <c r="C61" s="10">
         <f>AVERAGE(gripper!B3:K3)</f>
         <v>1.813761E-4</v>
@@ -5671,7 +4523,7 @@
       <c r="G61" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="H61" s="20">
+      <c r="H61" s="45">
         <v>0.3793732647455596</v>
       </c>
       <c r="I61" s="4" t="s">
@@ -5682,10 +4534,10 @@
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="28" t="s">
+      <c r="A62" s="27" t="s">
         <v>100</v>
       </c>
-      <c r="B62" s="32"/>
+      <c r="B62" s="31"/>
       <c r="C62" s="10">
         <f>AVERAGE(gripper!B4:K4)</f>
         <v>2.317117E-4</v>
@@ -5705,7 +4557,7 @@
       <c r="G62" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="H62" s="20">
+      <c r="H62" s="45">
         <v>0.3803900250732834</v>
       </c>
       <c r="I62" s="4" t="s">
@@ -5716,10 +4568,10 @@
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="28" t="s">
+      <c r="A63" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="B63" s="32"/>
+      <c r="B63" s="31"/>
       <c r="C63" s="10">
         <f>AVERAGE(gripper!B5:K5)</f>
         <v>2.8955780000000002E-4</v>
@@ -5739,7 +4591,7 @@
       <c r="G63" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="H63" s="20">
+      <c r="H63" s="45">
         <v>0.38209438385804123</v>
       </c>
       <c r="I63" s="4" t="s">
@@ -5750,10 +4602,10 @@
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="28" t="s">
+      <c r="A64" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="B64" s="32"/>
+      <c r="B64" s="31"/>
       <c r="C64" s="10">
         <f>AVERAGE(gripper!B6:K6)</f>
         <v>3.3910019999999996E-4</v>
@@ -5773,7 +4625,7 @@
       <c r="G64" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="H64" s="20">
+      <c r="H64" s="45">
         <v>0.39003562237355838</v>
       </c>
       <c r="I64" s="4" t="s">
@@ -5784,10 +4636,10 @@
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="28" t="s">
+      <c r="A65" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="B65" s="32"/>
+      <c r="B65" s="31"/>
       <c r="C65" s="10">
         <f>AVERAGE(gripper!B7:K7)</f>
         <v>3.7623409999999996E-4</v>
@@ -5807,7 +4659,7 @@
       <c r="G65" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="H65" s="20">
+      <c r="H65" s="45">
         <v>0.39337504797595485</v>
       </c>
       <c r="I65" s="4" t="s">
@@ -5818,10 +4670,10 @@
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="28" t="s">
+      <c r="A66" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="B66" s="32"/>
+      <c r="B66" s="31"/>
       <c r="C66" s="10">
         <f>AVERAGE(gripper!B8:K8)</f>
         <v>4.2386380000000002E-4</v>
@@ -5841,7 +4693,7 @@
       <c r="G66" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="H66" s="20">
+      <c r="H66" s="45">
         <v>0.39655824205508489</v>
       </c>
       <c r="I66" s="4" t="s">
@@ -5852,10 +4704,10 @@
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="28" t="s">
+      <c r="A67" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="B67" s="32"/>
+      <c r="B67" s="31"/>
       <c r="C67" s="10">
         <f>AVERAGE(gripper!B9:K9)</f>
         <v>6.5874770000000002E-4</v>
@@ -5875,7 +4727,7 @@
       <c r="G67" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="H67" s="20">
+      <c r="H67" s="45">
         <v>0.3982492675180912</v>
       </c>
       <c r="I67" s="4" t="s">
@@ -5886,10 +4738,10 @@
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="28" t="s">
+      <c r="A68" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="B68" s="32"/>
+      <c r="B68" s="31"/>
       <c r="C68" s="10">
         <f>AVERAGE(gripper!B10:K10)</f>
         <v>5.4165559999999992E-4</v>
@@ -5909,7 +4761,7 @@
       <c r="G68" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="H68" s="20">
+      <c r="H68" s="45">
         <v>0.39958998444009658</v>
       </c>
       <c r="I68" s="4" t="s">
@@ -5920,10 +4772,10 @@
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="28" t="s">
+      <c r="A69" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="B69" s="32"/>
+      <c r="B69" s="31"/>
       <c r="C69" s="10">
         <f>AVERAGE(gripper!B11:K11)</f>
         <v>5.9119840000000006E-4</v>
@@ -5943,7 +4795,7 @@
       <c r="G69" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="H69" s="20">
+      <c r="H69" s="45">
         <v>0.40045869324842809</v>
       </c>
       <c r="I69" s="4" t="s">
@@ -5954,10 +4806,10 @@
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" s="28" t="s">
+      <c r="A70" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="B70" s="32"/>
+      <c r="B70" s="31"/>
       <c r="C70" s="10">
         <f>AVERAGE(gripper!B12:K12)</f>
         <v>6.359359E-4</v>
@@ -5977,7 +4829,7 @@
       <c r="G70" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="H70" s="20">
+      <c r="H70" s="45">
         <v>0.40461670107573633</v>
       </c>
       <c r="I70" s="4" t="s">
@@ -5988,10 +4840,10 @@
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="28" t="s">
+      <c r="A71" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="B71" s="32"/>
+      <c r="B71" s="31"/>
       <c r="C71" s="10">
         <f>AVERAGE(gripper!B13:K13)</f>
         <v>6.724163E-4</v>
@@ -6011,7 +4863,7 @@
       <c r="G71" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="H71" s="20">
+      <c r="H71" s="45">
         <v>0.40620398383836126</v>
       </c>
       <c r="I71" s="4" t="s">
@@ -6022,10 +4874,10 @@
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72" s="28" t="s">
+      <c r="A72" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="B72" s="32"/>
+      <c r="B72" s="31"/>
       <c r="C72" s="10">
         <f>AVERAGE(gripper!B14:K14)</f>
         <v>7.3198860000000003E-4</v>
@@ -6045,7 +4897,7 @@
       <c r="G72" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="H72" s="20">
+      <c r="H72" s="45">
         <v>0.40651902411044299</v>
       </c>
       <c r="I72" s="4" t="s">
@@ -6056,10 +4908,10 @@
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A73" s="28" t="s">
+      <c r="A73" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="B73" s="32"/>
+      <c r="B73" s="31"/>
       <c r="C73" s="10">
         <f>AVERAGE(gripper!B15:K15)</f>
         <v>8.0700200000000002E-4</v>
@@ -6079,7 +4931,7 @@
       <c r="G73" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="H73" s="20">
+      <c r="H73" s="45">
         <v>0.40764551068026789</v>
       </c>
       <c r="I73" s="4" t="s">
@@ -6090,10 +4942,10 @@
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A74" s="28" t="s">
+      <c r="A74" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="B74" s="32"/>
+      <c r="B74" s="31"/>
       <c r="C74" s="10">
         <f>AVERAGE(gripper!B16:K16)</f>
         <v>8.598099000000001E-4</v>
@@ -6113,7 +4965,7 @@
       <c r="G74" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="H74" s="20">
+      <c r="H74" s="45">
         <v>0.40850617108970949</v>
       </c>
       <c r="I74" s="4" t="s">
@@ -6124,10 +4976,10 @@
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A75" s="28" t="s">
+      <c r="A75" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="B75" s="32"/>
+      <c r="B75" s="31"/>
       <c r="C75" s="10">
         <f>AVERAGE(gripper!B17:K17)</f>
         <v>8.7907659999999989E-4</v>
@@ -6147,7 +4999,7 @@
       <c r="G75" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="H75" s="20">
+      <c r="H75" s="45">
         <v>0.43489017717427442</v>
       </c>
       <c r="I75" s="4" t="s">
@@ -6158,10 +5010,10 @@
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A76" s="28" t="s">
+      <c r="A76" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="B76" s="32"/>
+      <c r="B76" s="31"/>
       <c r="C76" s="10">
         <f>AVERAGE(gripper!B18:K18)</f>
         <v>1.0335820999999999E-3</v>
@@ -6181,7 +5033,7 @@
       <c r="G76" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="H76" s="20">
+      <c r="H76" s="45">
         <v>0.44636004972166654</v>
       </c>
       <c r="I76" s="4" t="s">
@@ -6192,10 +5044,10 @@
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" s="28" t="s">
+      <c r="A77" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="B77" s="32"/>
+      <c r="B77" s="31"/>
       <c r="C77" s="10">
         <f>AVERAGE(gripper!B19:K19)</f>
         <v>1.0184674999999999E-3</v>
@@ -6215,7 +5067,7 @@
       <c r="G77" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="H77" s="20">
+      <c r="H77" s="45">
         <v>0.44813367756203082</v>
       </c>
       <c r="I77" s="4" t="s">
@@ -6226,10 +5078,10 @@
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" s="28" t="s">
+      <c r="A78" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="B78" s="32"/>
+      <c r="B78" s="31"/>
       <c r="C78" s="10">
         <f>AVERAGE(gripper!B20:K20)</f>
         <v>1.0528017999999997E-3</v>
@@ -6249,7 +5101,7 @@
       <c r="G78" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="H78" s="20">
+      <c r="H78" s="45">
         <v>0.44817047701261481</v>
       </c>
       <c r="I78" s="4" t="s">
@@ -6260,10 +5112,10 @@
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A79" s="30" t="s">
+      <c r="A79" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="B79" s="35"/>
+      <c r="B79" s="34"/>
       <c r="C79" s="12">
         <f>AVERAGE(gripper!B21:K21)</f>
         <v>1.1692410000000001E-3</v>
@@ -6283,7 +5135,7 @@
       <c r="G79" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="H79" s="20">
+      <c r="H79" s="45">
         <v>0.44875013996667934</v>
       </c>
       <c r="I79" s="4" t="s">
@@ -6294,10 +5146,10 @@
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A80" s="33" t="s">
+      <c r="A80" s="32" t="s">
         <v>118</v>
       </c>
-      <c r="B80" s="34"/>
+      <c r="B80" s="33"/>
       <c r="C80" s="8">
         <f>AVERAGE(logistics!B2:K2)</f>
         <v>2.0059589999999998E-4</v>
@@ -6317,7 +5169,7 @@
       <c r="G80" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="H80" s="20">
+      <c r="H80" s="45">
         <v>0.45070561445553531</v>
       </c>
       <c r="I80" s="4" t="s">
@@ -6328,10 +5180,10 @@
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A81" s="28" t="s">
+      <c r="A81" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="B81" s="29"/>
+      <c r="B81" s="28"/>
       <c r="C81" s="10">
         <f>AVERAGE(logistics!B3:K3)</f>
         <v>2.1622389999999999E-4</v>
@@ -6351,7 +5203,7 @@
       <c r="G81" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="H81" s="20">
+      <c r="H81" s="45">
         <v>0.45106474528310414</v>
       </c>
       <c r="I81" s="4" t="s">
@@ -6362,10 +5214,10 @@
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A82" s="28" t="s">
+      <c r="A82" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="B82" s="29"/>
+      <c r="B82" s="28"/>
       <c r="C82" s="10">
         <f>AVERAGE(logistics!B4:K4)</f>
         <v>1.3733819999999999E-4</v>
@@ -6385,7 +5237,7 @@
       <c r="G82" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="H82" s="20">
+      <c r="H82" s="45">
         <v>0.46138619417380378</v>
       </c>
       <c r="I82" s="4" t="s">
@@ -6396,10 +5248,10 @@
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A83" s="28" t="s">
+      <c r="A83" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="B83" s="29"/>
+      <c r="B83" s="28"/>
       <c r="C83" s="10">
         <f>AVERAGE(logistics!B5:K5)</f>
         <v>2.6226759999999993E-4</v>
@@ -6419,7 +5271,7 @@
       <c r="G83" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="H83" s="20">
+      <c r="H83" s="45">
         <v>0.4617677893851746</v>
       </c>
       <c r="I83" s="4" t="s">
@@ -6430,10 +5282,10 @@
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A84" s="28" t="s">
+      <c r="A84" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="B84" s="29"/>
+      <c r="B84" s="28"/>
       <c r="C84" s="10">
         <f>AVERAGE(logistics!B6:K6)</f>
         <v>1.7078619999999999E-4</v>
@@ -6453,7 +5305,7 @@
       <c r="G84" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="H84" s="20">
+      <c r="H84" s="45">
         <v>0.47638684490899375</v>
       </c>
       <c r="I84" s="4" t="s">
@@ -6464,10 +5316,10 @@
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A85" s="28" t="s">
+      <c r="A85" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="B85" s="29"/>
+      <c r="B85" s="28"/>
       <c r="C85" s="10">
         <f>AVERAGE(logistics!B7:K7)</f>
         <v>1.041698E-4</v>
@@ -6487,7 +5339,7 @@
       <c r="G85" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="H85" s="20">
+      <c r="H85" s="45">
         <v>0.49339899513108498</v>
       </c>
       <c r="I85" s="4" t="s">
@@ -6498,10 +5350,10 @@
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A86" s="28" t="s">
+      <c r="A86" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="B86" s="29"/>
+      <c r="B86" s="28"/>
       <c r="C86" s="10">
         <f>AVERAGE(logistics!B8:K8)</f>
         <v>2.2709320000000003E-4</v>
@@ -6521,7 +5373,7 @@
       <c r="G86" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="H86" s="20">
+      <c r="H86" s="45">
         <v>0.53081307911624986</v>
       </c>
       <c r="I86" s="4" t="s">
@@ -6532,10 +5384,10 @@
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A87" s="28" t="s">
+      <c r="A87" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="B87" s="29"/>
+      <c r="B87" s="28"/>
       <c r="C87" s="10">
         <f>AVERAGE(logistics!B9:K9)</f>
         <v>1.3090050000000002E-4</v>
@@ -6555,7 +5407,7 @@
       <c r="G87" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="H87" s="20">
+      <c r="H87" s="45">
         <v>0.53456126095134648</v>
       </c>
       <c r="I87" s="4" t="s">
@@ -6566,10 +5418,10 @@
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A88" s="28" t="s">
+      <c r="A88" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="B88" s="29"/>
+      <c r="B88" s="28"/>
       <c r="C88" s="10">
         <f>AVERAGE(logistics!B10:K10)</f>
         <v>2.4771249999999998E-4</v>
@@ -6589,7 +5441,7 @@
       <c r="G88" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="H88" s="20">
+      <c r="H88" s="45">
         <v>0.53628956233450553</v>
       </c>
       <c r="I88" s="4" t="s">
@@ -6600,10 +5452,10 @@
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A89" s="28" t="s">
+      <c r="A89" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="B89" s="29"/>
+      <c r="B89" s="28"/>
       <c r="C89" s="10">
         <f>AVERAGE(logistics!B11:K11)</f>
         <v>2.624541E-4</v>
@@ -6623,7 +5475,7 @@
       <c r="G89" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="H89" s="20">
+      <c r="H89" s="45">
         <v>0.54828368118211834</v>
       </c>
       <c r="I89" s="4" t="s">
@@ -6634,10 +5486,10 @@
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A90" s="28" t="s">
+      <c r="A90" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="B90" s="29"/>
+      <c r="B90" s="28"/>
       <c r="C90" s="10">
         <f>AVERAGE(logistics!B12:K12)</f>
         <v>4.0259119999999995E-4</v>
@@ -6657,7 +5509,7 @@
       <c r="G90" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="H90" s="20">
+      <c r="H90" s="45">
         <v>0.61674327211714675</v>
       </c>
       <c r="I90" s="4" t="s">
@@ -6668,10 +5520,10 @@
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A91" s="28" t="s">
+      <c r="A91" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="B91" s="29"/>
+      <c r="B91" s="28"/>
       <c r="C91" s="10">
         <f>AVERAGE(logistics!B13:K13)</f>
         <v>5.1142650000000011E-4</v>
@@ -6691,7 +5543,7 @@
       <c r="G91" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="H91" s="20">
+      <c r="H91" s="45">
         <v>0.67449863263445808</v>
       </c>
       <c r="I91" s="4" t="s">
@@ -6702,10 +5554,10 @@
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A92" s="28" t="s">
+      <c r="A92" s="27" t="s">
         <v>130</v>
       </c>
-      <c r="B92" s="29"/>
+      <c r="B92" s="28"/>
       <c r="C92" s="10">
         <f>AVERAGE(logistics!B14:K14)</f>
         <v>3.6830330000000005E-4</v>
@@ -6725,7 +5577,7 @@
       <c r="G92" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="H92" s="20">
+      <c r="H92" s="45">
         <v>0.71412950850202894</v>
       </c>
       <c r="I92" s="4" t="s">
@@ -6736,10 +5588,10 @@
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A93" s="28" t="s">
+      <c r="A93" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="B93" s="29"/>
+      <c r="B93" s="28"/>
       <c r="C93" s="10">
         <f>AVERAGE(logistics!B15:K15)</f>
         <v>4.5903829999999999E-4</v>
@@ -6759,7 +5611,7 @@
       <c r="G93" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="H93" s="20">
+      <c r="H93" s="45">
         <v>0.72077255014451258</v>
       </c>
       <c r="I93" s="4" t="s">
@@ -6770,10 +5622,10 @@
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A94" s="28" t="s">
+      <c r="A94" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="B94" s="29"/>
+      <c r="B94" s="28"/>
       <c r="C94" s="10">
         <f>AVERAGE(logistics!B16:K16)</f>
         <v>3.2566520000000001E-4</v>
@@ -6793,7 +5645,7 @@
       <c r="G94" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="H94" s="20">
+      <c r="H94" s="45">
         <v>0.74010046267368301</v>
       </c>
       <c r="I94" s="4" t="s">
@@ -6804,10 +5656,10 @@
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A95" s="28" t="s">
+      <c r="A95" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="B95" s="29"/>
+      <c r="B95" s="28"/>
       <c r="C95" s="10">
         <f>AVERAGE(logistics!B17:K17)</f>
         <v>3.5342220000000001E-4</v>
@@ -6827,7 +5679,7 @@
       <c r="G95" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="H95" s="20">
+      <c r="H95" s="45">
         <v>0.757455223983176</v>
       </c>
       <c r="I95" s="4" t="s">
@@ -6838,10 +5690,10 @@
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A96" s="28" t="s">
+      <c r="A96" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="B96" s="29"/>
+      <c r="B96" s="28"/>
       <c r="C96" s="10">
         <f>AVERAGE(logistics!B18:K18)</f>
         <v>4.9589149999999999E-4</v>
@@ -6861,7 +5713,7 @@
       <c r="G96" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="H96" s="20">
+      <c r="H96" s="45">
         <v>0.78834032791252384</v>
       </c>
       <c r="I96" s="4" t="s">
@@ -6872,10 +5724,10 @@
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A97" s="28" t="s">
+      <c r="A97" s="27" t="s">
         <v>135</v>
       </c>
-      <c r="B97" s="29"/>
+      <c r="B97" s="28"/>
       <c r="C97" s="10">
         <f>AVERAGE(logistics!B19:K19)</f>
         <v>3.8854949999999998E-4</v>
@@ -6895,7 +5747,7 @@
       <c r="G97" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="H97" s="20">
+      <c r="H97" s="45">
         <v>0.80482752921001255</v>
       </c>
       <c r="I97" s="4" t="s">
@@ -6906,10 +5758,10 @@
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A98" s="28" t="s">
+      <c r="A98" s="27" t="s">
         <v>136</v>
       </c>
-      <c r="B98" s="29"/>
+      <c r="B98" s="28"/>
       <c r="C98" s="10">
         <f>AVERAGE(logistics!B20:K20)</f>
         <v>3.4941099999999997E-5</v>
@@ -6929,7 +5781,7 @@
       <c r="G98" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="H98" s="20">
+      <c r="H98" s="45">
         <v>0.87132271374699055</v>
       </c>
       <c r="I98" s="4" t="s">
@@ -6940,10 +5792,10 @@
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A99" s="28" t="s">
+      <c r="A99" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="B99" s="29"/>
+      <c r="B99" s="28"/>
       <c r="C99" s="10">
         <f>AVERAGE(logistics!B21:K21)</f>
         <v>5.5149879999999993E-4</v>
@@ -6963,7 +5815,7 @@
       <c r="G99" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="H99" s="20">
+      <c r="H99" s="45">
         <v>0.88994355364495703</v>
       </c>
       <c r="I99" s="4" t="s">
@@ -6974,10 +5826,10 @@
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A100" s="28" t="s">
+      <c r="A100" s="27" t="s">
         <v>138</v>
       </c>
-      <c r="B100" s="29"/>
+      <c r="B100" s="28"/>
       <c r="C100" s="10">
         <f>AVERAGE(logistics!B22:K22)</f>
         <v>4.609041999999999E-4</v>
@@ -6997,7 +5849,7 @@
       <c r="G100" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="H100" s="20">
+      <c r="H100" s="45">
         <v>0.9088250708299016</v>
       </c>
       <c r="I100" s="4" t="s">
@@ -7008,10 +5860,10 @@
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A101" s="28" t="s">
+      <c r="A101" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="B101" s="29"/>
+      <c r="B101" s="28"/>
       <c r="C101" s="10">
         <f>AVERAGE(logistics!B23:K23)</f>
         <v>7.5689950000000007E-4</v>
@@ -7031,7 +5883,7 @@
       <c r="G101" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="H101" s="20">
+      <c r="H101" s="45">
         <v>1.1447685222440827</v>
       </c>
       <c r="I101" s="4" t="s">
@@ -7042,10 +5894,10 @@
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A102" s="28" t="s">
+      <c r="A102" s="27" t="s">
         <v>140</v>
       </c>
-      <c r="B102" s="29"/>
+      <c r="B102" s="28"/>
       <c r="C102" s="10">
         <f>AVERAGE(logistics!B24:K24)</f>
         <v>8.5094649999999995E-4</v>
@@ -7065,7 +5917,7 @@
       <c r="G102" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="H102" s="20">
+      <c r="H102" s="45">
         <v>1.1809882468511557</v>
       </c>
       <c r="I102" s="4" t="s">
@@ -7076,10 +5928,10 @@
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A103" s="28" t="s">
+      <c r="A103" s="27" t="s">
         <v>141</v>
       </c>
-      <c r="B103" s="29"/>
+      <c r="B103" s="28"/>
       <c r="C103" s="10">
         <f>AVERAGE(logistics!B25:K25)</f>
         <v>6.6775120000000002E-4</v>
@@ -7099,7 +5951,7 @@
       <c r="G103" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="H103" s="20">
+      <c r="H103" s="45">
         <v>1.3195004740788352</v>
       </c>
       <c r="I103" s="4" t="s">
@@ -7110,10 +5962,10 @@
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A104" s="28" t="s">
+      <c r="A104" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="B104" s="29"/>
+      <c r="B104" s="28"/>
       <c r="C104" s="10">
         <f>AVERAGE(logistics!B26:K26)</f>
         <v>7.0465129999999993E-4</v>
@@ -7133,7 +5985,7 @@
       <c r="G104" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H104" s="20">
+      <c r="H104" s="45">
         <v>2.4329834334147753</v>
       </c>
       <c r="I104" s="4" t="s">
@@ -7144,10 +5996,10 @@
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A105" s="28" t="s">
+      <c r="A105" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="B105" s="29"/>
+      <c r="B105" s="28"/>
       <c r="C105" s="10">
         <f>AVERAGE(logistics!B27:K27)</f>
         <v>8.5771059999999991E-4</v>
@@ -7167,7 +6019,7 @@
       <c r="G105" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="H105" s="20">
+      <c r="H105" s="45">
         <v>2.6674242740097114</v>
       </c>
       <c r="I105" s="4" t="s">
@@ -7178,10 +6030,10 @@
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A106" s="28" t="s">
+      <c r="A106" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="B106" s="29"/>
+      <c r="B106" s="28"/>
       <c r="C106" s="10">
         <f>AVERAGE(logistics!B28:K28)</f>
         <v>9.2964539999999991E-4</v>
@@ -7201,7 +6053,7 @@
       <c r="G106" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="H106" s="20">
+      <c r="H106" s="45">
         <v>2.9693411124521312</v>
       </c>
       <c r="I106" s="4" t="s">
@@ -7212,10 +6064,10 @@
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A107" s="30" t="s">
+      <c r="A107" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="B107" s="31"/>
+      <c r="B107" s="30"/>
       <c r="C107" s="12">
         <f>AVERAGE(logistics!B29:K29)</f>
         <v>1.4810043000000001E-3</v>
@@ -7235,7 +6087,7 @@
       <c r="G107" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H107" s="21">
+      <c r="H107" s="46">
         <v>3.0852837120189718</v>
       </c>
       <c r="I107" s="1" t="s">
@@ -7264,6 +6116,7 @@
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
+    <mergeCell ref="F1:F2"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A21:B21"/>
@@ -7322,7 +6175,6 @@
     <mergeCell ref="A70:B70"/>
     <mergeCell ref="A67:B67"/>
     <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A90:B90"/>
     <mergeCell ref="A78:B78"/>
     <mergeCell ref="A80:B80"/>
     <mergeCell ref="A81:B81"/>
@@ -7337,7 +6189,6 @@
     <mergeCell ref="A77:B77"/>
     <mergeCell ref="A79:B79"/>
     <mergeCell ref="A73:B73"/>
-    <mergeCell ref="F1:F2"/>
     <mergeCell ref="I1:J2"/>
     <mergeCell ref="A103:B103"/>
     <mergeCell ref="A104:B104"/>
@@ -7361,9 +6212,11 @@
     <mergeCell ref="A87:B87"/>
     <mergeCell ref="A88:B88"/>
     <mergeCell ref="A89:B89"/>
+    <mergeCell ref="A90:B90"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
